--- a/data/trans_dic/P16B07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,19; 100,0</t>
+          <t>76,77; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,47; 100,0</t>
+          <t>79,1; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,4; 100,0</t>
+          <t>61,95; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -925,27 +926,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,91; 100,0</t>
+          <t>79,07; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,62; 100,0</t>
+          <t>65,12; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 100,0</t>
+          <t>82,07; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,49; 100,0</t>
+          <t>91,29; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,74; 100,0</t>
+          <t>85,23; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,81; 100,0</t>
+          <t>66,82; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,58; 100,0</t>
+          <t>88,81; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>92,64; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,69; 100,0</t>
+          <t>87,85; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,53; 100,0</t>
+          <t>94,47; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,65; 98,66</t>
+          <t>87,78; 98,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,07; 100,0</t>
+          <t>93,0; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,11; 98,8</t>
+          <t>89,33; 98,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>94,87; 100,0</t>
+          <t>93,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,12; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,17; 99,05</t>
+          <t>94,22; 99,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,5; 100,0</t>
+          <t>97,27; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,73; 98,92</t>
+          <t>94,78; 98,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>98,25; 100,0</t>
+          <t>98,27; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>97,9; 100,0</t>
+          <t>98,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos antidepresivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4974</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11573</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13460</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15164</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16401</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18435</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2289; 3591</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6241; 8131</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3453; 4974</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9758; 11573</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6348; 8270</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11508; 13460</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13370; 15164</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14334; 16401</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16493; 18435</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12568</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4962</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21478</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14204</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11100</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27453</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26771</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16062</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4397; 5976</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10213; 12568</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3445; 4962</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17243; 22461</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12288; 14204</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9204; 11100</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22491; 28436</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24557; 26771</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14162; 16062</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11068</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26679</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15380</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12309</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24500</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17016</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23378</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51179</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>32396</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7379; 11912</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24648; 26679</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13560; 15380</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10523; 12309</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20232; 25587</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11723; 18001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19879; 24222</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47712; 52266</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28451; 33381</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28869</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43603</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43390</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68636</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101266</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>72258</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23266; 25032</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40704; 42745</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26972; 28869</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41751; 43603</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56522; 58521</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41416; 43390</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66785; 68636</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>99223; 101266</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70281; 72258</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11303</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11850</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15689</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44064</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>93017</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>81655</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55367</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>104867</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>97345</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8233; 12321</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10131; 11850</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13940; 15689</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>40021; 45064</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87258; 94193</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79570; 81655</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50412; 57385</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100177; 106043</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95295; 97345</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9456</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>76569</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>95830</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79502</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>86025</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>96800</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>82666</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7684; 9456</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>222; 971</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1759; 3164</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>70364; 79080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>93834; 95830</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>74797; 80427</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>80049; 88546</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>94805; 96800</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>78312; 83591</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>102943</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>73039</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>209596</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>294341</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>246125</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>276022</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>397285</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>319164</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>61678; 68288</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>100822; 102943</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>71123; 73039</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>202739; 213138</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>288637; 296605</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>241251; 248034</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>268664; 280180</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>392622; 399549</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>315174; 321073</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>